--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,187 +40,199 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>boring</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>insane</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>guilty</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>false</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>least</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>better</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>new</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>recommend</t>
   </si>
   <si>
     <t>really</t>
@@ -229,31 +241,31 @@
     <t>documentary</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>dilemma</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
-    <t>media</t>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>…</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>’</t>
@@ -625,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -739,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,16 +769,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -786,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.8571428571428571</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -836,38 +848,38 @@
         <v>11</v>
       </c>
       <c r="B6">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="C6">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6">
         <v>0.9090909090909091</v>
       </c>
-      <c r="C6">
+      <c r="L6">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L6">
-        <v>25</v>
-      </c>
-      <c r="M6">
-        <v>25</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -878,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8846153846153846</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.8181818181818182</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8484848484848485</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.78</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.7543859649122807</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.6166666666666667</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.5733333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L12">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K13">
         <v>0.5263157894736842</v>
@@ -1236,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K14">
         <v>0.5</v>
@@ -1286,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.4827586206896552</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1336,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.3939393939393939</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,38 +1398,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="L17">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1428,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6159420289855072</v>
+        <v>0.6875</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.3703703703703703</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -1478,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6153846153846154</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.3157894736842105</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.2708333333333333</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1578,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5833333333333334</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="L21">
         <v>9</v>
@@ -1628,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1654,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>0.1707317073170732</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1678,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1686,13 +1698,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5357142857142857</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,13 +1716,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.1639344262295082</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -1728,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1748,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5319148936170213</v>
+        <v>0.5625</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.1481481481481481</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1778,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1786,13 +1798,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.1408450704225352</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1828,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,7 +1848,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -1854,19 +1866,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.1357012750455373</v>
+        <v>0.1320582877959927</v>
       </c>
       <c r="L26">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M26">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1878,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,13 +1898,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1904,19 +1916,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>0.1304347826086956</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1928,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,13 +1948,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1954,19 +1966,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K28">
-        <v>0.1230769230769231</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1978,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,13 +1998,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4285714285714285</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2004,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K29">
-        <v>0.1186440677966102</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="L29">
         <v>7</v>
@@ -2028,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,13 +2048,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2054,19 +2066,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K30">
-        <v>0.08421052631578947</v>
+        <v>0.06713780918727916</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2078,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>87</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2086,13 +2098,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3928571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2104,19 +2116,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K31">
-        <v>0.07067137809187279</v>
+        <v>0.06296296296296296</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2128,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>263</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2136,13 +2148,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3809523809523809</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2154,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K32">
-        <v>0.07058823529411765</v>
+        <v>0.05572289156626506</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2178,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>79</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2186,13 +2198,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3529411764705883</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2204,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K33">
-        <v>0.06086956521739131</v>
+        <v>0.05396825396825397</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2228,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>108</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2236,13 +2248,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3214285714285715</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2254,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K34">
-        <v>0.05555555555555555</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2278,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>510</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2286,13 +2298,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2692307692307692</v>
+        <v>0.4</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2304,19 +2316,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K35">
-        <v>0.05396825396825397</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2328,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>298</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2336,179 +2348,275 @@
         <v>41</v>
       </c>
       <c r="B36">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>17</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>14</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37">
+        <v>0.0282258064516129</v>
+      </c>
+      <c r="L37">
+        <v>49</v>
+      </c>
+      <c r="M37">
+        <v>49</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39">
+        <v>0.02684563758389262</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <v>0.89</v>
+      </c>
+      <c r="O39">
+        <v>0.11</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.25</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>21</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40">
+        <v>0.0141025641025641</v>
+      </c>
+      <c r="L40">
+        <v>11</v>
+      </c>
+      <c r="M40">
+        <v>12</v>
+      </c>
+      <c r="N40">
+        <v>0.92</v>
+      </c>
+      <c r="O40">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
         <v>0.2307692307692308</v>
       </c>
-      <c r="C36">
+      <c r="C41">
         <v>18</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>18</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>60</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.05109489051094891</v>
-      </c>
-      <c r="L36">
-        <v>7</v>
-      </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.0466867469879518</v>
-      </c>
-      <c r="L37">
-        <v>31</v>
-      </c>
-      <c r="M37">
-        <v>31</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.03462204270051933</v>
-      </c>
-      <c r="L38">
-        <v>60</v>
-      </c>
-      <c r="M38">
-        <v>63</v>
-      </c>
-      <c r="N38">
-        <v>0.95</v>
-      </c>
-      <c r="O38">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39">
-        <v>0.03409090909090909</v>
-      </c>
-      <c r="L39">
-        <v>21</v>
-      </c>
-      <c r="M39">
-        <v>21</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40">
-        <v>0.02647058823529412</v>
-      </c>
-      <c r="L40">
-        <v>9</v>
-      </c>
-      <c r="M40">
-        <v>10</v>
-      </c>
-      <c r="N40">
-        <v>0.9</v>
-      </c>
-      <c r="O40">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41">
-        <v>0.02304737516005122</v>
-      </c>
-      <c r="L41">
-        <v>18</v>
-      </c>
-      <c r="M41">
-        <v>18</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>763</v>
       </c>
     </row>
   </sheetData>
